--- a/Tableur d'avancement.xlsx
+++ b/Tableur d'avancement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Etape</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Sandaly -&gt; Thomas</t>
   </si>
   <si>
+    <t>Choix entre abonnement de base ou prenium (emprunteur)</t>
+  </si>
+  <si>
     <t>Proposer un service</t>
   </si>
   <si>
@@ -85,64 +88,97 @@
     <t>Gérer son profil</t>
   </si>
   <si>
+    <t>Permet de modifier les champs de l'utilisateur.</t>
+  </si>
+  <si>
     <t>Gérer ses disponibilités</t>
   </si>
   <si>
-    <t>Sandaly-&gt; Thomas ?</t>
+    <t>Sandaly-&gt; Thomas</t>
+  </si>
+  <si>
+    <t>Mode sommeil et Planning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emprunter un matériel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajoute une transaction, file d'attente ajouté, et notifications
+faites avec page, gérer les transactions.
+</t>
+  </si>
+  <si>
+    <t>Gérer ses annonces</t>
+  </si>
+  <si>
+    <t>Sandaly-&gt;Rayan</t>
+  </si>
+  <si>
+    <t>Supprimer, et modifier champs d'une annonce.</t>
+  </si>
+  <si>
+    <t>Se désabonner</t>
+  </si>
+  <si>
+    <t>Sami, Franck</t>
+  </si>
+  <si>
+    <t>Garde l'abonnement jusqu'à la fin de la période.</t>
+  </si>
+  <si>
+    <t>Valider une transaction</t>
+  </si>
+  <si>
+    <t>Sandaly -&gt; Sami</t>
+  </si>
+  <si>
+    <t>Nécessite la validation des 2 personnes dans la messagerie.</t>
+  </si>
+  <si>
+    <t>Demander un service</t>
+  </si>
+  <si>
+    <t>Thomas-&gt;Rayan</t>
+  </si>
+  <si>
+    <t>Rayan-&gt;Thomas</t>
+  </si>
+  <si>
+    <t>Ajoute une transaction, file d'attente ajouté, et notifications 
+faites avec page, gérer les transactions.</t>
+  </si>
+  <si>
+    <t>3-&gt;2</t>
+  </si>
+  <si>
+    <t>Communication entre utilisateurs</t>
+  </si>
+  <si>
+    <t>Un chat par transaction.</t>
+  </si>
+  <si>
+    <t>Constuler les évaluations</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Emprunter un matériel</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Boutton emprunter fait, ajoute a la bdd une transaction</t>
-  </si>
-  <si>
-    <t>Gérer ses annonces</t>
-  </si>
-  <si>
-    <t>Sandaly-&gt;Rayan</t>
-  </si>
-  <si>
-    <t>Bug suppresion annonce service, update duree pret a faire</t>
-  </si>
-  <si>
-    <t>Se désabonner</t>
-  </si>
-  <si>
-    <t>Valider une transaction</t>
+    <t>Traiter une réclamation</t>
+  </si>
+  <si>
+    <t>Ozkan</t>
+  </si>
+  <si>
+    <t>Noter une transaction</t>
+  </si>
+  <si>
+    <t>Déposer une réclamation</t>
+  </si>
+  <si>
+    <t>Modifier la note d'une personne</t>
   </si>
   <si>
     <t>Sandaly</t>
-  </si>
-  <si>
-    <t>Demander un service</t>
-  </si>
-  <si>
-    <t>Thomas-&gt;Rayan</t>
-  </si>
-  <si>
-    <t>Constuler les évaluations</t>
-  </si>
-  <si>
-    <t>Noter une transaction</t>
-  </si>
-  <si>
-    <t>Ozkan</t>
-  </si>
-  <si>
-    <t>Communication entre utilisateurs</t>
-  </si>
-  <si>
-    <t>Déposer une réclamation</t>
-  </si>
-  <si>
-    <t>Modifier la note d'une personne</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -155,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -172,11 +208,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +228,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,30 +251,81 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" textRotation="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +547,8 @@
     <col customWidth="1" min="2" max="2" width="31.63"/>
     <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="6" max="6" width="51.25"/>
+    <col customWidth="1" min="6" max="6" width="13.0"/>
+    <col customWidth="1" min="7" max="7" width="48.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,8 +590,8 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -502,7 +609,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -520,320 +628,361 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>1.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>1.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>1.0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22">
       <c r="B22" s="1"/>
     </row>
     <row r="23">
       <c r="B23" s="1"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>

--- a/Tableur d'avancement.xlsx
+++ b/Tableur d'avancement.xlsx
@@ -544,11 +544,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="31.63"/>
-    <col customWidth="1" min="3" max="3" width="16.25"/>
-    <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="48.13"/>
+    <col customWidth="1" min="2" max="2" width="29.0"/>
+    <col customWidth="1" min="3" max="3" width="15.13"/>
+    <col customWidth="1" min="4" max="4" width="15.63"/>
+    <col customWidth="1" min="5" max="5" width="4.0"/>
+    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col customWidth="1" min="7" max="7" width="46.0"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Tableur d'avancement.xlsx
+++ b/Tableur d'avancement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Etape</t>
   </si>
@@ -157,41 +157,71 @@
     <t>Un chat par transaction.</t>
   </si>
   <si>
-    <t>Constuler les évaluations</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Consulter ses évaluations</t>
+  </si>
+  <si>
+    <t>Consulte les avis reçus d'autres utilisateurs.</t>
   </si>
   <si>
     <t>Traiter une réclamation</t>
   </si>
   <si>
-    <t>Ozkan</t>
+    <t>Ozkan-&gt;Rayan</t>
+  </si>
+  <si>
+    <t>Réponse à une réclamation, envoie une notif et un mail.</t>
   </si>
   <si>
     <t>Noter une transaction</t>
   </si>
   <si>
+    <t>Note une transaction de 1 à 5 avec un commentaire(optionnel).</t>
+  </si>
+  <si>
     <t>Déposer une réclamation</t>
   </si>
   <si>
+    <t>Ozkan -&gt; Thomas</t>
+  </si>
+  <si>
+    <t>Thomas-&gt; Sami</t>
+  </si>
+  <si>
+    <t>Contacter les administrateurs concernant une tracation ou un 
+problème technique.</t>
+  </si>
+  <si>
     <t>Modifier la note d'une personne</t>
   </si>
   <si>
-    <t>Sandaly</t>
+    <t xml:space="preserve">Rayan </t>
+  </si>
+  <si>
+    <t>Modifie la note d'une transaction de 1 à 5 avec un commentaire.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Rechercher un matériel ou un service</t>
+  </si>
+  <si>
+    <t>Un enfer, l'utilisation des QueryBuilder pour filtrer 
+depuis les requêtes SQL</t>
+  </si>
+  <si>
+    <t>Consulter le profil d'un autre utilisateur</t>
+  </si>
+  <si>
+    <t>Consulte les avis qu'un utilisateur a reçu en cliquant sur
+son pseudo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -215,6 +245,10 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -251,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -323,10 +357,19 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -545,11 +588,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="29.0"/>
-    <col customWidth="1" min="3" max="3" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="16.63"/>
     <col customWidth="1" min="4" max="4" width="15.63"/>
     <col customWidth="1" min="5" max="5" width="4.0"/>
-    <col customWidth="1" min="6" max="6" width="12.5"/>
-    <col customWidth="1" min="7" max="7" width="46.0"/>
+    <col customWidth="1" min="6" max="6" width="19.88"/>
+    <col customWidth="1" min="7" max="7" width="48.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -873,10 +916,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="22">
@@ -888,21 +933,23 @@
       <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22">
         <v>3.0</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>8</v>
@@ -911,50 +958,56 @@
         <v>12</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22">
         <v>3.0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="22">
         <v>3.0</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -962,22 +1015,42 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>54</v>
+      <c r="D21" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="1"/>
+      <c r="A22" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="1"/>
